--- a/biology/Médecine/Liste_des_signes_éponymes_en_sémiologie_médicale/Liste_des_signes_éponymes_en_sémiologie_médicale.xlsx
+++ b/biology/Médecine/Liste_des_signes_éponymes_en_sémiologie_médicale/Liste_des_signes_éponymes_en_sémiologie_médicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page dresse la liste des signes cliniques éponymes (ainsi que les tests, et manœuvres cliniques à but diagnostic), en sémiologie médicale.
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aaron (Signe d') : douleur épigastrique à la palpation continue du point de McBurney évocatrice d’appendicite.
 Abadie (Signe d') : spasme du muscle releveur de la paupière supérieure, observé dans la maladie de Basedow.
@@ -557,7 +571,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,7 +589,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Babinski (Signe du peaucier de) : Lors d’une paralysie faciale, contraction plus importante du muscle peaucier du cou (platysma) du côté sain.
 Babinski (Signe de) : Elévation lente et majestueuse de l’hallux à la recherche du réflexe cutané plantaire. Spécifique d’un syndrome pyramidal.
@@ -596,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,7 +630,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Campbell (Signe de) : Mouvement de descente du cartilage thyroïde à chaque inspiration par la mise en jeu des muscles respiratoires accessoires.
 Carnett (Signe de) : Augmentation ou persistance à l’identique d’une douleur abdominale lorsque le patient contracte ses muscles abdominaux (par exemple, en soulevant sa tête et ses épaules de la table). Augmente la probabilité d’une pathologie pariétale (hernie, irritation de la racine des nerfs intercostaux, hématome du grand droit,  …)
@@ -638,7 +656,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +674,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Dalrymple (Signe de) : Dans la maladie de Basedow, rétraction palpébrale supérieure avec visualisation de la sclère bordant la périphérie supérieure de la cornée.
 Darier (Signe de) : Oèdeme erythème (prurit) au frottement retrouvé dans la mastocytose.
@@ -674,7 +694,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -693,6 +713,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -718,7 +740,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Faget (Signe de) : Dissociation pouls-température. La fréquence cardiaque n'augmente pas autant que ce l'augmentation de la température corporelle le laisserait présager.
 Flatau (Signe de) :  Signe méningitique consistant en une mydriase à la flexion nucale.
@@ -737,7 +761,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -755,7 +779,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Gerber (Test de) : Lift-off test. Test du muscle subscapulaire.
 Gorlin (Signe de) : Patient capable de toucher le bout de son nez avec sa langue. Fréquence plus importante dans les maladies avec hyperlaxité, comme le syndrome d'Ehler-Danlos.
@@ -774,7 +800,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -792,7 +818,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Harzer (Signe de) : Perception des battements cardiaques au niveau de l'épigastre, évocatrice d'une hypertrophie ventriculaire droite.
 Hawkins (Signe de) : Evocateur d’un conflit sous-acromial.
@@ -815,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -834,6 +862,8 @@
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -841,7 +871,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -859,7 +889,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jaccoud (Main de) : Déformation indolore ou peu douloureuse des rayons digitaux II, III, IV, V avec luxation ulnaire des extenseurs dans les vallées métacarpiennes. Souvent observée dans les connectivites comme le lupus érythémateux systémique.
 Janeway (Placards érythémateux palmo-plantaire de) : Lésions érythémateuses ou hémorragiques de quelques millimètres, maculaires ou nodulaires, situées sur la paume des mains ou la plante des pieds, pathognomonique de l’endocardite infectieuse.
@@ -875,7 +907,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -893,7 +925,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kayser-Fleischer (Anneau de) : Formation arrondie jaune-verdâtre autour de l’iris, symptomatique d’une maladie de Wilson. Peut également se retrouver dans la chalcose (dépôt de cuivre secondaire à un corps étranger cuprique intra-oculaire).
 Keining (Signe de) : Signe de la manucure. Hypertrophie de la cuticule (éponychium). Signe de myosite.
@@ -909,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -927,7 +961,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lachman (Test de) : Recherche d’un tiroir tibial, genou en extension, témoignant d’une laxité ou d’une rupture du ligament croisé antérieur.
 Landolfi (Signe de) : Hippus pupillaire. Alternance d'une constriction puis relâchement de la pupille retrouvée dans l’insuffisance aortique sévère.
@@ -948,7 +984,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -966,7 +1002,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Macintosh (Test de) : Recherche d’un ressaut rotatoire par rupture du ligament croisé antérieur.
 Malher (Pouls grimpant de) : Accélération progressive sur plusieurs jours de la fréquence cardiaque signant une maladie thromboembolique veineuse.
@@ -987,7 +1025,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1005,7 +1043,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Neer (Signe de) : Evocateur d’un conflit sous-acromial.
 Negro (Signe de) : Lors de la paralysie faciale périphérique, à l’élévation du regard, l’œil du côté paralysé s’élève davantage que l’œil du côté sain.
@@ -1020,7 +1060,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1038,7 +1078,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Osler (Faux panaris / Nodules) : Signe d’endocardite ou de dépôts de complexes immuns.</t>
         </is>
@@ -1050,7 +1092,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1068,7 +1110,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Pathergie (Test de) : Apparition d’une pustule au niveau d’un point d’effraction cutané, retrouvé dans la maladie de Behçet.
 Patte (Manœuvre de) : Tests du muscle infra-épineux et du muscle petit rond en rotation externe contrariée.
@@ -1084,7 +1128,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1102,7 +1146,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Quincke (Pouls de) : Pulsation capillaire. Notamment visible au niveau unguéal (pouls unguéal) lors de l’insuffisance aortique.</t>
         </is>
@@ -1114,7 +1160,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1132,7 +1178,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Raynaud (Phénomène de) :
 Renne (Test de) : Douleur aux mouvements de flexion-extension en appui monopodal dans le syndrome de l’essuie-glace.
@@ -1153,7 +1201,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1171,7 +1219,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Schwartz (Manœuvre de) : Signe du flot veineux inversé. Si la percussion est perçue, signe une insuffisance valvulaire veineuse.
 Shamroth (Test de / fenêtre de) : Opposition des phalanges distales pour évaluer l’existence d’un hippocratisme digital. La disparition de l’ouverture losangique normalement présente, résultante des angles de Lovibond mis face à face, signe l’hippocratisme digital.
@@ -1189,7 +1239,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1207,7 +1257,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tillaux (Manœuvre de)
 Tinel (Signe de) : La palpation ou la percussion du tronc nerveux déclenche des paresthésies dans les segments distaux du tronc nerveux.
@@ -1223,7 +1275,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1242,6 +1294,8 @@
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1249,7 +1303,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1267,7 +1321,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Valleix (Points de) : Point de compression douloureux sur le trajet du nerf sciatique.
 Vincent (Signe de) : Anesthésie labio-mentonnière, retrouvée lors des atteintes du nerf alvéolaire inférieur.</t>
@@ -1280,7 +1336,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1298,7 +1354,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Wartenberg (Signe de) : Abduction permanente involontaire du 5ème doigt par atteinte du nerf ulnaire entrainant un déficit inter-osseux avec un muscle abducteur du 5ème doigt relativement préservé.
 Weber (Épreuve de)
@@ -1312,7 +1370,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1331,6 +1389,8 @@
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1338,7 +1398,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1356,7 +1416,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Yocum (Signe de) : Evocateur d’un conflit sous-acromial.</t>
         </is>
@@ -1368,7 +1430,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_signes_%C3%A9ponymes_en_s%C3%A9miologie_m%C3%A9dicale</t>
+          <t>Liste_des_signes_éponymes_en_sémiologie_médicale</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1386,7 +1448,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">Zohlen (Signe de) : Douleur lorsque l’examinateur s’oppose à l’ascension de la patella lors de la contraction du quadriceps évocateur d’une arthrose fémoro-patellaire.
  Portail de la médecine   Langue française et francophonie                    </t>
